--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Wandering Albatross_Crozet.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Wandering Albatross_Crozet.xlsx
@@ -3657,13 +3657,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7C4F8F4-7BF4-4801-A79E-1688BB3F0241}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9401D4B2-D7F5-46FA-BA84-B7897C6CD3CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B105A7B-099D-4C5D-ACC4-03292F08C182}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A902BBAA-AF52-4EC0-849C-2E5EB294DDAB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D273B9BE-1733-4F34-AA4C-31CFE993AE22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4BFD28-BE94-4337-8296-BD00C0AE09E1}"/>
 </file>